--- a/biology/Médecine/1829_en_santé_et_médecine/1829_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1829_en_santé_et_médecine/1829_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1829_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1829_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1829 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1829_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1829_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16 novembre : Alix de Lamartine, mère du poète Alphonse de Lamartine, meurt ébouillantée dans son bain qu'elle avait fait couler pour reprendre son calme après l'annonce de l'élection de son fils à l'Académie française[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16 novembre : Alix de Lamartine, mère du poète Alphonse de Lamartine, meurt ébouillantée dans son bain qu'elle avait fait couler pour reprendre son calme après l'annonce de l'élection de son fils à l'Académie française.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1829_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1829_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'inventeur français aveugle Louis Braille publie le système d'écriture en relief pour aveugles qui porte son nom.
-Claude Auguste Reynaud décrit pour la première fois les signes cliniques de la pleurésie[2].</t>
+Claude Auguste Reynaud décrit pour la première fois les signes cliniques de la pleurésie.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1829_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1829_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Poiseuille obtient le prix Montyon.
 Charles Bell reçoit la médaille royale de la Royal Society.</t>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1829_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1829_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +621,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>26 avril : Theodor Billroth (mort en 1894), chirurgien allemand.
 14 août : Marie-Théophile Griffon du Bellay (mort en 1908), médecin et explorateur français.
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1829_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1829_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,10 +659,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>31 mars : Edward Augustus Holyoke (en) (né en 1728), médecin américain.
-14 novembre : Louis-Nicolas Vauquelin (né en 1763), pharmacien et chimiste français[3].</t>
+14 novembre : Louis-Nicolas Vauquelin (né en 1763), pharmacien et chimiste français.</t>
         </is>
       </c>
     </row>
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1829_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1829_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Alix de Lamartine, Alphonse de Lamartine, Le manuscrit de ma mère, Paris, Hachette et cie, 1877, 340 p. (lire en ligne), p. 319-320.
